--- a/Semestre 1/2.- Probabilidad Y Estadística/Examen 1.xlsx
+++ b/Semestre 1/2.- Probabilidad Y Estadística/Examen 1.xlsx
@@ -95,7 +95,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,7 +217,16 @@
               <c:f>Sheet1!$C$2:$C$6</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664968991"/>
         <c:axId val="664968992"/>
       </c:scatterChart>
@@ -283,6 +293,7 @@
         </c:txPr>
         <c:crossAx val="664968992"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664968992"/>
@@ -395,10 +406,11 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="1914524" y="1428749"/>
+      <a:off x="1914524" y="1428748"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1049,7 +1061,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1914524" y="1428749"/>
+        <a:off x="1914524" y="1428748"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1564,7 +1576,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="12.57421875"/>
     <col customWidth="1" min="3" max="3" width="9.57421875"/>
-    <col customWidth="1" min="6" max="6" width="11.00390625"/>
+    <col customWidth="1" min="6" max="6" width="13.421875"/>
     <col customWidth="1" min="7" max="7" width="18.00390625"/>
     <col customWidth="1" min="8" max="8" width="16.8515625"/>
   </cols>
@@ -1625,12 +1637,12 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <f>SQRT(G6)</f>
-        <v>4.6086874487211649</v>
-      </c>
-      <c r="H3">
-        <f>SQRT(H6)</f>
-        <v>6.359245238233858</v>
+        <f>SQRT((((B2-G2)^2)+((B3-G2)^2)+((B4-G2)^2)+((B5-G2)^2)+((B6-G2)^2))/(COUNT(A2:A6)-1))</f>
+        <v>5.272570530585627</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SQRT((((C2-H2)^2)+((C3-H2)^2)+((C4-H2)^2)+((C5-H2)^2)+((C6-H2)^2))/(COUNT(B2:B6)-1))</f>
+        <v>7.197221686178632</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1646,9 +1658,9 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
-        <f>CORREL(B2:B6,C2:C6)</f>
-        <v>0.10013740178440982</v>
+      <c r="G4" t="e">
+        <f>CORREL(G3,H3)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1672,7 +1684,7 @@
       <c r="C6">
         <v>88</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G6">
@@ -1689,17 +1701,17 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="H9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
